--- a/FASE 1/Documentación Proyecto/Planilla de Requerimientos.xlsx
+++ b/FASE 1/Documentación Proyecto/Planilla de Requerimientos.xlsx
@@ -12,439 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="EQRDVgSE2geZeYjmkj9oDSfMspoh7CAVCB6Lh4sEsOU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="7xcc+9TAar/rYY5J4Lrik/tVSp+lyqLzh/Ks5epM5VM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D2">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABqSRe9Bg
-ISAIAS . VELOZ GONZALEZ    (2025-09-02 13:32:49)
-Cambie actores relacionados de algunos requerimientos para mejor compresión de sus involucrados</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H2">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABqSRe9Bc
-ISAIAS . VELOZ GONZALEZ    (2025-09-02 13:30:15)
-Añadí diferenciación entre colores para requisitos funcionales y no</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhKTfY50uo2236iWWW13MXv0FsHtw=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
-  <si>
-    <t>R-N°</t>
-  </si>
-  <si>
-    <t>Nombre del Requerimiento</t>
-  </si>
-  <si>
-    <t>Tipo Requerimiento
-Funcional, No Funcional</t>
-  </si>
-  <si>
-    <t>Actores Usuarios Relacionados</t>
-  </si>
-  <si>
-    <t>Descripción corta del requerimiento</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>R.1</t>
-  </si>
-  <si>
-    <t>Registro de Usuario</t>
-  </si>
-  <si>
-    <t>Funcional</t>
-  </si>
-  <si>
-    <t>Usuario final</t>
-  </si>
-  <si>
-    <t>Permitir crear un perfil personal con datos básicos y contraseña</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>R.2</t>
-  </si>
-  <si>
-    <t>Inicio de sesión</t>
-  </si>
-  <si>
-    <t>Administrador/usuario final</t>
-  </si>
-  <si>
-    <t>Permitir autenticación segura con correo y contraseña</t>
-  </si>
-  <si>
-    <t>No Funcional</t>
-  </si>
-  <si>
-    <t>R.3</t>
-  </si>
-  <si>
-    <t>Registro Emocional Diario</t>
-  </si>
-  <si>
-    <t>Permitir registrar estados emocionales cada día</t>
-  </si>
-  <si>
-    <t>R.4</t>
-  </si>
-  <si>
-    <t>Visualización de Patrones</t>
-  </si>
-  <si>
-    <t>Mostrar gráficos de evolución emocional</t>
-  </si>
-  <si>
-    <t>R.5</t>
-  </si>
-  <si>
-    <t>Chatbot de Apoyo Emocional</t>
-  </si>
-  <si>
-    <t>Brindar contención inicial y recomendaciones personalizadas</t>
-  </si>
-  <si>
-    <t>R.6</t>
-  </si>
-  <si>
-    <t>Ejercicios de Mindfulness</t>
-  </si>
-  <si>
-    <t>Ofrecer ejercicios guiados adaptados a distintos niveles</t>
-  </si>
-  <si>
-    <t>R.7</t>
-  </si>
-  <si>
-    <t>Motor de Recomendaciones</t>
-  </si>
-  <si>
-    <t>Generar sugerencias de hábitos y actividades según registro emocional</t>
-  </si>
-  <si>
-    <t>R.8</t>
-  </si>
-  <si>
-    <t>Base de Recursos Verificados</t>
-  </si>
-  <si>
-    <t>Usuario final/Administrador</t>
-  </si>
-  <si>
-    <t>Centralizar información de líneas de apoyo y guías confiables</t>
-  </si>
-  <si>
-    <t>R.9</t>
-  </si>
-  <si>
-    <t>Seguridad de Datos</t>
-  </si>
-  <si>
-    <t>Todos los usuarios</t>
-  </si>
-  <si>
-    <t>Encriptación de datos, autenticación segura y privacidad por diseño</t>
-  </si>
-  <si>
-    <t>R.10</t>
-  </si>
-  <si>
-    <t>Disponibilidad del Sistema</t>
-  </si>
-  <si>
-    <t>Mantener disponibilidad mínima del 99 %</t>
-  </si>
-  <si>
-    <t>R.11</t>
-  </si>
-  <si>
-    <t>Interfaz Intuitiva</t>
-  </si>
-  <si>
-    <t>Garantizar navegación fácil e intuitiva en web y app</t>
-  </si>
-  <si>
-    <t>R.12</t>
-  </si>
-  <si>
-    <t>Adaptabilidad Móvil</t>
-  </si>
-  <si>
-    <t>La plataforma debe funcionar en smartphones y tablets Android</t>
-  </si>
-  <si>
-    <t>R.13</t>
-  </si>
-  <si>
-    <t>Actualización de Recursos</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Permitir agregar, editar y eliminar recursos de ayuda</t>
-  </si>
-  <si>
-    <t>R.14</t>
-  </si>
-  <si>
-    <t>Reporte de Uso</t>
-  </si>
-  <si>
-    <t>Generar reportes de actividad de los usuarios</t>
-  </si>
-  <si>
-    <t>R.15</t>
-  </si>
-  <si>
-    <t>Reporte de Ejercicios</t>
-  </si>
-  <si>
-    <t>Generar reportes de ejercicios completados por los usuarios</t>
-  </si>
-  <si>
-    <t>R.16</t>
-  </si>
-  <si>
-    <t>Alertas y Notificaciones</t>
-  </si>
-  <si>
-    <t>Enviar recordatorios de registro y ejercicios</t>
-  </si>
-  <si>
-    <t>R.17</t>
-  </si>
-  <si>
-    <t>Feedback del Usuario</t>
-  </si>
-  <si>
-    <t>Permitir que el usuario evalúe ejercicios y recomendaciones</t>
-  </si>
-  <si>
-    <t>R.18</t>
-  </si>
-  <si>
-    <t>Compatibilidad Navegadores</t>
-  </si>
-  <si>
-    <t>Soporte para Chrome, Firefox, Edge y navegadores móviles</t>
-  </si>
-  <si>
-    <t>R.19</t>
-  </si>
-  <si>
-    <t>Escalabilidad</t>
-  </si>
-  <si>
-    <t>Soportar aumento de usuarios sin afectar rendimiento</t>
-  </si>
-  <si>
-    <t>R.20</t>
-  </si>
-  <si>
-    <t>Integración de IA</t>
-  </si>
-  <si>
-    <t>El chatbot y motor de recomendaciones deben usar IA para personalización</t>
-  </si>
-  <si>
-    <t>R.21</t>
-  </si>
-  <si>
-    <t>Auditoría de Accesos</t>
-  </si>
-  <si>
-    <t>Registrar y auditar accesos y cambios en la plataforma</t>
-  </si>
-  <si>
-    <t>R.22</t>
-  </si>
-  <si>
-    <t>Registro de Actividades</t>
-  </si>
-  <si>
-    <t>Guardar historial de interacción del usuario con la plataforma</t>
-  </si>
-  <si>
-    <t>R.23</t>
-  </si>
-  <si>
-    <t>Backup de Datos</t>
-  </si>
-  <si>
-    <t>Realizar copias de seguridad periódicas de la información</t>
-  </si>
-  <si>
-    <t>R.24</t>
-  </si>
-  <si>
-    <t>Cumplimiento Normativo</t>
-  </si>
-  <si>
-    <t>Cumplir con normativa de protección de datos (LGPD/GDPR/Chile)</t>
-  </si>
-  <si>
-    <t>R.25</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Mantener tiempos de respuesta &lt; 3 segundos en el 95% de solicitudes</t>
-  </si>
-  <si>
-    <t>R.26</t>
-  </si>
-  <si>
-    <t>Configuración de Perfil</t>
-  </si>
-  <si>
-    <t>Permitir editar datos personales y preferencias</t>
-  </si>
-  <si>
-    <t>R.27</t>
-  </si>
-  <si>
-    <t>Acceso Anónimo</t>
-  </si>
-  <si>
-    <t>Permitir uso del chatbot y ejercicios sin registro completo</t>
-  </si>
-  <si>
-    <t>R.28</t>
-  </si>
-  <si>
-    <t>Multilenguaje</t>
-  </si>
-  <si>
-    <t>Soporte para español e inglés</t>
-  </si>
-  <si>
-    <t>R.29</t>
-  </si>
-  <si>
-    <t>Historial de Recomendaciones</t>
-  </si>
-  <si>
-    <t>Guardar y mostrar recomendaciones pasadas</t>
-  </si>
-  <si>
-    <t>R.30</t>
-  </si>
-  <si>
-    <t>Soporte Técnico</t>
-  </si>
-  <si>
-    <t>Canal de soporte para incidencias y dudas</t>
-  </si>
-  <si>
-    <t>R.31</t>
-  </si>
-  <si>
-    <t>Validación de Datos</t>
-  </si>
-  <si>
-    <t>Validar campos al registrar información para evitar errores</t>
-  </si>
-  <si>
-    <t>R.32</t>
-  </si>
-  <si>
-    <t>Seguridad de API</t>
-  </si>
-  <si>
-    <t>Autenticación y autorización segura de todas las APIs</t>
-  </si>
-  <si>
-    <t>R.33</t>
-  </si>
-  <si>
-    <t>Control de Sesiones</t>
-  </si>
-  <si>
-    <t>Gestionar sesiones activas y expiración automática</t>
-  </si>
-  <si>
-    <t>R.34</t>
-  </si>
-  <si>
-    <t>Reporte de Métricas</t>
-  </si>
-  <si>
-    <t>Generar métricas de adherencia y efectividad de la plataforma</t>
-  </si>
-  <si>
-    <t>R.35</t>
-  </si>
-  <si>
-    <t>Personalización UI</t>
-  </si>
-  <si>
-    <t>Permitir ajustes de tema y tamaño de texto</t>
-  </si>
-  <si>
-    <t>R.36</t>
-  </si>
-  <si>
-    <t>Integración</t>
-  </si>
-  <si>
-    <t>Enviar notificaciones de actividades importantes</t>
-  </si>
-  <si>
-    <t>R.37</t>
-  </si>
-  <si>
-    <t>Evaluación de Impacto</t>
-  </si>
-  <si>
-    <t>Medir impacto de la plataforma sobre bienestar de usuarios</t>
-  </si>
-  <si>
-    <t>R.38</t>
-  </si>
-  <si>
-    <t>Registro de Incidencias</t>
-  </si>
-  <si>
-    <t>Guardar errores y fallos del sistema para revisión</t>
-  </si>
-  <si>
-    <t>R.39</t>
-  </si>
-  <si>
-    <t>Seguridad de la Información</t>
-  </si>
-  <si>
-    <t>Implementar cifrado de datos en reposo y en tránsito, autenticación segura y controles de acceso para proteger la información de todos los usuarios</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="148">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -456,10 +31,391 @@
 [Funcional, No Funcional]</t>
   </si>
   <si>
+    <t>Actores Usuarios Relacionados</t>
+  </si>
+  <si>
+    <t>[Descripción corta del requerimiento]</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>R.1</t>
+  </si>
+  <si>
+    <t>Registro de Usuario</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Usuario final</t>
+  </si>
+  <si>
+    <t>Permitir crear un perfil personal con datos básicos y contraseña</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>R.2</t>
+  </si>
+  <si>
+    <t>Inicio de sesión</t>
+  </si>
+  <si>
+    <t>Permitir autenticación segura con correo y contraseña</t>
+  </si>
+  <si>
+    <t>R.3</t>
+  </si>
+  <si>
+    <t>Registro Emocional Diario</t>
+  </si>
+  <si>
+    <t>Permitir registrar estados emocionales cada día</t>
+  </si>
+  <si>
+    <t>No Funcional</t>
+  </si>
+  <si>
+    <t>R.4</t>
+  </si>
+  <si>
+    <t>Visualización de Patrones</t>
+  </si>
+  <si>
+    <t>Mostrar gráficos de evolución emocional</t>
+  </si>
+  <si>
+    <t>R.5</t>
+  </si>
+  <si>
+    <t>Chatbot de Apoyo Emocional</t>
+  </si>
+  <si>
+    <t>Brindar contención inicial y recomendaciones personalizadas</t>
+  </si>
+  <si>
+    <t>R.6</t>
+  </si>
+  <si>
+    <t>Ejercicios de Mindfulness</t>
+  </si>
+  <si>
+    <t>Ofrecer ejercicios guiados adaptados a distintos niveles</t>
+  </si>
+  <si>
+    <t>R.7</t>
+  </si>
+  <si>
+    <t>Motor de Recomendaciones</t>
+  </si>
+  <si>
+    <t>Generar sugerencias de hábitos y actividades según registro emocional</t>
+  </si>
+  <si>
+    <t>R.8</t>
+  </si>
+  <si>
+    <t>Base de Recursos Verificados</t>
+  </si>
+  <si>
+    <t>Usuario final/Administrador</t>
+  </si>
+  <si>
+    <t>Centralizar información de líneas de apoyo y guías confiables</t>
+  </si>
+  <si>
+    <t>R.9</t>
+  </si>
+  <si>
+    <t>Seguridad de Datos</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Encriptación de datos, autenticación segura y privacidad por diseño</t>
+  </si>
+  <si>
+    <t>R.10</t>
+  </si>
+  <si>
+    <t>Disponibilidad del Sistema</t>
+  </si>
+  <si>
+    <t>Todos los usuarios</t>
+  </si>
+  <si>
+    <t>Mantener disponibilidad mínima del 99 %</t>
+  </si>
+  <si>
+    <t>R.11</t>
+  </si>
+  <si>
+    <t>Interfaz Intuitiva</t>
+  </si>
+  <si>
+    <t>Garantizar navegación fácil e intuitiva en web y app</t>
+  </si>
+  <si>
+    <t>R.12</t>
+  </si>
+  <si>
+    <t>Adaptabilidad Móvil</t>
+  </si>
+  <si>
+    <t>La plataforma debe funcionar en smartphones y tablets Android</t>
+  </si>
+  <si>
+    <t>R.13</t>
+  </si>
+  <si>
+    <t>Actualización de Recursos</t>
+  </si>
+  <si>
+    <t>Permitir agregar, editar y eliminar recursos de ayuda</t>
+  </si>
+  <si>
+    <t>R.14</t>
+  </si>
+  <si>
+    <t>Reporte de Uso</t>
+  </si>
+  <si>
+    <t>Generar reportes de actividad de los usuarios</t>
+  </si>
+  <si>
+    <t>R.15</t>
+  </si>
+  <si>
+    <t>Reporte de Ejercicios</t>
+  </si>
+  <si>
+    <t>Generar reportes de ejercicios completados por los usuarios</t>
+  </si>
+  <si>
+    <t>R.16</t>
+  </si>
+  <si>
+    <t>Alertas y Notificaciones</t>
+  </si>
+  <si>
+    <t>Enviar recordatorios de registro y ejercicios</t>
+  </si>
+  <si>
+    <t>R.17</t>
+  </si>
+  <si>
+    <t>Feedback del Usuario</t>
+  </si>
+  <si>
+    <t>Permitir que el usuario evalúe ejercicios y recomendaciones</t>
+  </si>
+  <si>
+    <t>R.18</t>
+  </si>
+  <si>
+    <t>Compatibilidad Navegadores</t>
+  </si>
+  <si>
+    <t>Soporte para Chrome, Firefox, Edge y navegadores móviles</t>
+  </si>
+  <si>
+    <t>R.19</t>
+  </si>
+  <si>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>Soportar aumento de usuarios sin afectar rendimiento</t>
+  </si>
+  <si>
+    <t>R.20</t>
+  </si>
+  <si>
+    <t>Integración de IA</t>
+  </si>
+  <si>
+    <t>El chatbot y motor de recomendaciones deben usar IA para personalización</t>
+  </si>
+  <si>
+    <t>R.21</t>
+  </si>
+  <si>
+    <t>Auditoría de Accesos</t>
+  </si>
+  <si>
+    <t>Registrar y auditar accesos y cambios en la plataforma</t>
+  </si>
+  <si>
+    <t>R.22</t>
+  </si>
+  <si>
+    <t>Registro de Actividades</t>
+  </si>
+  <si>
+    <t>Guardar historial de interacción del usuario con la plataforma</t>
+  </si>
+  <si>
+    <t>R.23</t>
+  </si>
+  <si>
+    <t>Backup de Datos</t>
+  </si>
+  <si>
+    <t>Realizar copias de seguridad periódicas de la información</t>
+  </si>
+  <si>
+    <t>R.24</t>
+  </si>
+  <si>
+    <t>Cumplimiento Normativo</t>
+  </si>
+  <si>
+    <t>Cumplir con normativa de protección de datos (LGPD/GDPR/Chile)</t>
+  </si>
+  <si>
+    <t>R.25</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Mantener tiempos de respuesta &lt; 3 segundos en el 95% de solicitudes</t>
+  </si>
+  <si>
+    <t>R.26</t>
+  </si>
+  <si>
+    <t>Configuración de Perfil</t>
+  </si>
+  <si>
+    <t>Permitir editar datos personales y preferencias</t>
+  </si>
+  <si>
+    <t>R.27</t>
+  </si>
+  <si>
+    <t>Acceso Anónimo</t>
+  </si>
+  <si>
+    <t>Permitir uso del chatbot y ejercicios sin registro completo</t>
+  </si>
+  <si>
+    <t>R.28</t>
+  </si>
+  <si>
+    <t>Multilenguaje</t>
+  </si>
+  <si>
+    <t>Soporte para español e inglés</t>
+  </si>
+  <si>
+    <t>R.29</t>
+  </si>
+  <si>
+    <t>Historial de Recomendaciones</t>
+  </si>
+  <si>
+    <t>Guardar y mostrar recomendaciones pasadas</t>
+  </si>
+  <si>
+    <t>R.30</t>
+  </si>
+  <si>
+    <t>Soporte Técnico</t>
+  </si>
+  <si>
+    <t>Canal de soporte para incidencias y dudas</t>
+  </si>
+  <si>
+    <t>R.31</t>
+  </si>
+  <si>
+    <t>Validación de Datos</t>
+  </si>
+  <si>
+    <t>Validar campos al registrar información para evitar errores</t>
+  </si>
+  <si>
+    <t>R.32</t>
+  </si>
+  <si>
+    <t>Seguridad de API</t>
+  </si>
+  <si>
+    <t>Autenticación y autorización segura de todas las APIs</t>
+  </si>
+  <si>
+    <t>R.33</t>
+  </si>
+  <si>
+    <t>Control de Sesiones</t>
+  </si>
+  <si>
+    <t>Gestionar sesiones activas y expiración automática</t>
+  </si>
+  <si>
+    <t>R.34</t>
+  </si>
+  <si>
+    <t>Reporte de Métricas</t>
+  </si>
+  <si>
+    <t>Generar métricas de adherencia y efectividad de la plataforma</t>
+  </si>
+  <si>
+    <t>R.35</t>
+  </si>
+  <si>
+    <t>Personalización UI</t>
+  </si>
+  <si>
+    <t>Permitir ajustes de tema y tamaño de texto</t>
+  </si>
+  <si>
+    <t>R.36</t>
+  </si>
+  <si>
+    <t>Integración</t>
+  </si>
+  <si>
+    <t>Enviar notificaciones de actividades importantes</t>
+  </si>
+  <si>
+    <t>R.37</t>
+  </si>
+  <si>
+    <t>Evaluación de Impacto</t>
+  </si>
+  <si>
+    <t>Medir impacto de la plataforma sobre bienestar de usuarios</t>
+  </si>
+  <si>
+    <t>R.38</t>
+  </si>
+  <si>
+    <t>Registro de Incidencias</t>
+  </si>
+  <si>
+    <t>Guardar errores y fallos del sistema para revisión</t>
+  </si>
+  <si>
+    <t>R.39</t>
+  </si>
+  <si>
+    <t>Seguridad de la Información</t>
+  </si>
+  <si>
+    <t>Administrador / Todos los usuarios</t>
+  </si>
+  <si>
+    <t>Implementar cifrado de datos en reposo y en tránsito, autenticación segura y controles de acceso para proteger la información del usuario</t>
+  </si>
+  <si>
     <t>Actores Relacionados</t>
-  </si>
-  <si>
-    <t>[Descripción corta del requerimiento]</t>
   </si>
   <si>
     <t>Autentificar  Usuario al iniciar Sesión</t>
@@ -515,17 +471,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -543,20 +494,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -575,14 +519,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -639,58 +583,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,11 +847,11 @@
     <col customWidth="1" min="2" max="2" width="38.14"/>
     <col customWidth="1" min="3" max="3" width="25.71"/>
     <col customWidth="1" min="4" max="4" width="42.57"/>
-    <col customWidth="1" min="5" max="5" width="126.86"/>
+    <col customWidth="1" min="5" max="5" width="71.57"/>
     <col customWidth="1" min="6" max="6" width="15.86"/>
-    <col customWidth="1" min="7" max="7" width="10.71"/>
+    <col customWidth="1" min="7" max="7" width="11.43"/>
     <col customWidth="1" min="8" max="8" width="12.43"/>
-    <col customWidth="1" min="9" max="26" width="10.71"/>
+    <col customWidth="1" min="9" max="26" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="59.25" customHeight="1">
@@ -934,819 +864,819 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="4" ht="24.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="24.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="5" ht="24.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="24.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
+    <row r="7" ht="24.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="24.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    <row r="8" ht="27.0" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="55.5" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="13" ht="31.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="30.0" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="27.0" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="27.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="27.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="29.25" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="30.0" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="23.25" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="26.25" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="35" ht="21.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="24.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="7" t="s">
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="24.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7" t="s">
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
+    <row r="38" ht="26.25" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="24.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="11" t="s">
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="24.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="5" t="s">
+    <row r="40" ht="24.0" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2715,8 +2645,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2736,156 +2665,156 @@
     <col customWidth="1" min="4" max="4" width="25.43"/>
     <col customWidth="1" min="5" max="5" width="66.14"/>
     <col customWidth="1" min="6" max="6" width="15.86"/>
-    <col customWidth="1" min="7" max="26" width="10.71"/>
+    <col customWidth="1" min="7" max="26" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F5" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>147</v>
+      <c r="F6" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
